--- a/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-31/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>91837</v>
+        <v>91839</v>
       </c>
       <c r="D480" t="n">
-        <v>133266559</v>
+        <v>133270718</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>248473</v>
+        <v>248472</v>
       </c>
       <c r="D547" t="n">
-        <v>384154954</v>
+        <v>384152233</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -37198,10 +37198,10 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>104368</v>
+        <v>104367</v>
       </c>
       <c r="D768" t="n">
-        <v>152348022</v>
+        <v>152346584</v>
       </c>
       <c r="E768" t="inlineStr">
         <is>
@@ -38590,10 +38590,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="D797" t="n">
-        <v>7448750</v>
+        <v>7452966</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
